--- a/doc/SA cert/Reviewer/2차 서류심사 피드백 정영태_TranAnhTai.xlsx
+++ b/doc/SA cert/Reviewer/2차 서류심사 피드백 정영태_TranAnhTai.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 HE 연구소 2016 [TWS]\04 아키텍트&amp;DX 심사\2023 아키텍트 심사 3차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\codefun\doc\SA cert\Reviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>평가항목</t>
   </si>
@@ -322,24 +322,27 @@
   <si>
     <t>Overall, this is a well-crafted document. I will ask additional questions during the interview.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you very much for your comments. I will prepare the document carefully for the interview.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -348,7 +351,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -497,7 +500,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -781,27 +784,27 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="44.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="25.375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -809,7 +812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -817,7 +820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="24">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
@@ -825,7 +828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -844,7 +847,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="7" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
@@ -879,7 +882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="60">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -910,7 +913,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -941,7 +944,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="24">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -972,7 +975,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="24">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -1001,7 +1004,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -1032,7 +1035,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="36">
       <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
@@ -1052,12 +1055,14 @@
         <v>76</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1070,7 +1075,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1083,7 +1088,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1096,7 +1101,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1109,7 +1114,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1122,7 +1127,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1135,7 +1140,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1148,7 +1153,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1161,7 +1166,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1173,7 +1178,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1186,7 +1191,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1199,7 +1204,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1212,7 +1217,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1225,7 +1230,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1238,7 +1243,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1251,7 +1256,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1264,7 +1269,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1277,7 +1282,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1290,7 +1295,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1303,7 +1308,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1316,7 +1321,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1329,7 +1334,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1342,7 +1347,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1355,7 +1360,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1368,7 +1373,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1381,7 +1386,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1394,7 +1399,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1407,7 +1412,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1420,7 +1425,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1433,7 +1438,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1446,7 +1451,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1459,7 +1464,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1472,7 +1477,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1485,7 +1490,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1498,7 +1503,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1511,7 +1516,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1524,7 +1529,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1537,7 +1542,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1550,7 +1555,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1563,7 +1568,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1576,7 +1581,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1589,7 +1594,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1602,7 +1607,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1615,7 +1620,7 @@
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1628,7 +1633,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1641,7 +1646,7 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1654,7 +1659,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1667,7 +1672,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1680,7 +1685,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1693,7 +1698,7 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1706,7 +1711,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1719,7 +1724,7 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1732,7 +1737,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1745,7 +1750,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1758,7 +1763,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1771,7 +1776,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1784,7 +1789,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -1797,7 +1802,7 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -1810,7 +1815,7 @@
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1823,7 +1828,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -1836,7 +1841,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -1849,7 +1854,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -1905,16 +1910,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1936,7 +1941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1975,7 +1980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1986,12 +1991,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,7 +2008,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2014,7 +2019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
